--- a/专利查询和搜集/已处理/未命中数据.xlsx
+++ b/专利查询和搜集/已处理/未命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
   <si>
     <t>标题</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">fabric plant container </t>
   </si>
   <si>
-    <t xml:space="preserve">adjustable hook </t>
-  </si>
-  <si>
     <t xml:space="preserve">self-contained apparatuses for hanging, holding, rotating, or watering      plants using solar power for plant maintenance </t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
   </si>
   <si>
-    <t xml:space="preserve">hanger for potted plants </t>
-  </si>
-  <si>
     <t xml:space="preserve">cantilever attachment </t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t xml:space="preserve">wellhead sidewall electrical penetrator </t>
   </si>
   <si>
-    <t xml:space="preserve">pot hangers </t>
-  </si>
-  <si>
     <t xml:space="preserve">rotatable hanging planter mount </t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t xml:space="preserve">decorative article forming support </t>
   </si>
   <si>
-    <t xml:space="preserve">object hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">plant over-watering protective drainage article </t>
   </si>
   <si>
@@ -190,9 +178,6 @@
     <t xml:space="preserve">device support bracket </t>
   </si>
   <si>
-    <t xml:space="preserve">cloth hanger clip </t>
-  </si>
-  <si>
     <t xml:space="preserve">flowering planter </t>
   </si>
   <si>
@@ -205,18 +190,9 @@
     <t xml:space="preserve">creeping plant supporting frame assemblies </t>
   </si>
   <si>
-    <t xml:space="preserve">weight-responsive hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">towel holder for shower enclosures </t>
   </si>
   <si>
-    <t xml:space="preserve">hanger for plant container </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hanger hook </t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/84/815/107/1.pdf</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
     <t>https://pdfpiw.uspto.gov/50/282/085/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/50/330/080/1.pdf</t>
   </si>
   <si>
@@ -304,9 +277,6 @@
     <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/37/151/044/1.pdf</t>
   </si>
   <si>
@@ -316,9 +286,6 @@
     <t>https://pdfpiw.uspto.gov/99/891/042/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/07/354/042/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/43/708/041/1.pdf</t>
   </si>
   <si>
@@ -337,9 +304,6 @@
     <t>https://pdfpiw.uspto.gov/99/209/070/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/97/486/067/1.pdf</t>
   </si>
   <si>
@@ -391,9 +355,6 @@
     <t>https://pdfpiw.uspto.gov/68/160/055/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/07/696/054/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
   </si>
   <si>
@@ -406,18 +367,9 @@
     <t>https://pdfpiw.uspto.gov/96/769/052/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/37/569/049/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/85/877/048/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10781584</t>
   </si>
   <si>
@@ -466,9 +418,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08528250</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08033050</t>
   </si>
   <si>
@@ -505,9 +454,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04415137</t>
   </si>
   <si>
@@ -517,9 +463,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04289199</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04235407</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04170843</t>
   </si>
   <si>
@@ -538,9 +481,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07020999</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06941698</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06748697</t>
   </si>
   <si>
@@ -592,9 +532,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05516068</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05469607</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
   </si>
   <si>
@@ -607,18 +544,9 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05276996</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04956937</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04887785</t>
-  </si>
-  <si>
     <t>10781584</t>
   </si>
   <si>
@@ -667,9 +595,6 @@
     <t>8528250</t>
   </si>
   <si>
-    <t>8191849</t>
-  </si>
-  <si>
     <t>8033050</t>
   </si>
   <si>
@@ -706,9 +631,6 @@
     <t>4547992</t>
   </si>
   <si>
-    <t>4506475</t>
-  </si>
-  <si>
     <t>4415137</t>
   </si>
   <si>
@@ -718,9 +640,6 @@
     <t>4289199</t>
   </si>
   <si>
-    <t>4235407</t>
-  </si>
-  <si>
     <t>4170843</t>
   </si>
   <si>
@@ -739,9 +658,6 @@
     <t>7020999</t>
   </si>
   <si>
-    <t>6941698</t>
-  </si>
-  <si>
     <t>6748697</t>
   </si>
   <si>
@@ -793,9 +709,6 @@
     <t>5516068</t>
   </si>
   <si>
-    <t>5469607</t>
-  </si>
-  <si>
     <t>5381625</t>
   </si>
   <si>
@@ -808,16 +721,7 @@
     <t>5276996</t>
   </si>
   <si>
-    <t>5079869</t>
-  </si>
-  <si>
     <t>4979712</t>
-  </si>
-  <si>
-    <t>4956937</t>
-  </si>
-  <si>
-    <t>4887785</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,13 +1117,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1227,13 +1131,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1241,13 +1145,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1255,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1269,13 +1173,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1283,13 +1187,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1297,13 +1201,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1311,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1325,13 +1229,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1339,13 +1243,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1353,13 +1257,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1367,13 +1271,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1381,13 +1285,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1395,13 +1299,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1409,13 +1313,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1423,13 +1327,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1437,13 +1341,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1451,13 +1355,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1465,13 +1369,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1479,13 +1383,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1493,13 +1397,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1507,13 +1411,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1521,13 +1425,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1535,13 +1439,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1549,13 +1453,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1563,13 +1467,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1577,13 +1481,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1591,13 +1495,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1605,13 +1509,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1619,13 +1523,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1633,13 +1537,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1647,13 +1551,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1661,13 +1565,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1675,13 +1579,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1689,13 +1593,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1703,69 +1607,69 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1773,13 +1677,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1787,13 +1691,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1801,13 +1705,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1815,13 +1719,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1829,13 +1733,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1843,13 +1747,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1857,13 +1761,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1871,13 +1775,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1885,13 +1789,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1899,13 +1803,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1913,13 +1817,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1927,13 +1831,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1941,13 +1845,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1955,13 +1859,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1969,13 +1873,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1983,13 +1887,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1997,13 +1901,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2011,13 +1915,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2025,125 +1929,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D62" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2266,22 +2058,6 @@
     <hyperlink ref="C59" r:id="rId116"/>
     <hyperlink ref="B60" r:id="rId117"/>
     <hyperlink ref="C60" r:id="rId118"/>
-    <hyperlink ref="B61" r:id="rId119"/>
-    <hyperlink ref="C61" r:id="rId120"/>
-    <hyperlink ref="B62" r:id="rId121"/>
-    <hyperlink ref="C62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
-    <hyperlink ref="C63" r:id="rId124"/>
-    <hyperlink ref="B64" r:id="rId125"/>
-    <hyperlink ref="C64" r:id="rId126"/>
-    <hyperlink ref="B65" r:id="rId127"/>
-    <hyperlink ref="C65" r:id="rId128"/>
-    <hyperlink ref="B66" r:id="rId129"/>
-    <hyperlink ref="C66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131"/>
-    <hyperlink ref="C67" r:id="rId132"/>
-    <hyperlink ref="B68" r:id="rId133"/>
-    <hyperlink ref="C68" r:id="rId134"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/专利查询和搜集/已处理/未命中数据.xlsx
+++ b/专利查询和搜集/已处理/未命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
   <si>
     <t>标题</t>
   </si>
@@ -28,700 +28,787 @@
     <t>专利号</t>
   </si>
   <si>
+    <t>是否下载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant tag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanger hook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant cover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjustable hook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">openwork fabric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowering planter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloth hanger clip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ornamental support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hangable container </t>
+  </si>
+  <si>
     <t xml:space="preserve">post and beam system </t>
   </si>
   <si>
-    <t xml:space="preserve">openwork fabric </t>
+    <t xml:space="preserve">cantilever attachment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device support bracket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabric plant container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deck accessory bracket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensile support device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotating display device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanger for potted plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole garden and fountain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight-responsive hanger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">formable tubular product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modular hydroponic system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanging planter apparatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interlocking plant mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-crimped tie components </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deck mountable plant stand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanging plant track system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanger for plant container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demountable device bracket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apparatus for hanging plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspendable blow dryer holder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pot holder for use with posts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">end portion of handicraft gauge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotatable hanging planter mount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apparatus for displaying a plant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reversible hanging plant support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">petunia plant named `dancas 110` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patio umbrella support apparatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">elevated plant watering apparatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant hanger with watering system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decorative article forming support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">towel holder for shower enclosures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling patch apparatus and method </t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar-powered hanging basket light </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rimmed container mounting assembly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">method of hanging a clay flowerpot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support structure for hanging plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wellhead sidewall electrical penetrator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support pole with pipe-hinge slide lock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertical hanging fabric plant container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">creeping plant supporting frame assemblies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">garden device and method of producing same </t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic watering device for potted plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">supporting system for patio deck accessories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">self-contained plant watering apparatus system </t>
   </si>
   <si>
     <t xml:space="preserve">adjustable tie assembly for structural members </t>
   </si>
   <si>
-    <t xml:space="preserve">modular hydroponic system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">end portion of handicraft gauge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">self-contained plant watering apparatus system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hangable container </t>
+    <t xml:space="preserve">plant over-watering protective drainage article </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
   </si>
   <si>
     <t xml:space="preserve">methods and apparatus for vertical hanging plant container </t>
   </si>
   <si>
-    <t xml:space="preserve">apparatus for hanging plants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar-powered hanging basket light </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertical hanging fabric plant container </t>
-  </si>
-  <si>
-    <t xml:space="preserve">apparatus for displaying a plant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabric plant container </t>
+    <t xml:space="preserve">kit and components for constructing decorative polyhedrals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telescopic light base for coupling to diverse plant containers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special locking clip with apparatus for carrying plural plants to a      watering station </t>
   </si>
   <si>
     <t xml:space="preserve">self-contained apparatuses for hanging, holding, rotating, or watering      plants using solar power for plant maintenance </t>
   </si>
   <si>
-    <t xml:space="preserve">suspendable blow dryer holder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">support structure for hanging plants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deck accessory bracket </t>
-  </si>
-  <si>
-    <t xml:space="preserve">telescopic light base for coupling to diverse plant containers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reversible hanging plant support </t>
-  </si>
-  <si>
-    <t xml:space="preserve">support pole with pipe-hinge slide lock </t>
-  </si>
-  <si>
-    <t xml:space="preserve">patio umbrella support apparatus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">petunia plant named `dancas 110` </t>
-  </si>
-  <si>
-    <t xml:space="preserve">demountable device bracket </t>
-  </si>
-  <si>
-    <t xml:space="preserve">special locking clip with apparatus for carrying plural plants to a      watering station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cantilever attachment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hanging planter apparatus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wellhead sidewall electrical penetrator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotatable hanging planter mount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">garden device and method of producing same </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceiling patch apparatus and method </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kit and components for constructing decorative polyhedrals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decorative article forming support </t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant over-watering protective drainage article </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-crimped tie components </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deck mountable plant stand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">formable tubular product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pot holder for use with posts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ornamental support </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotating display device </t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant cover </t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatic watering device for potted plants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant tag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">supporting system for patio deck accessories </t>
-  </si>
-  <si>
-    <t xml:space="preserve">method of hanging a clay flowerpot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">elevated plant watering apparatus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rimmed container mounting assembly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hanging plant track system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pole garden and fountain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">device support bracket </t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowering planter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tensile support device </t>
-  </si>
-  <si>
-    <t xml:space="preserve">interlocking plant mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">creeping plant supporting frame assemblies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">towel holder for shower enclosures </t>
+    <t>https://pdfpiw.uspto.gov/33/452/061/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/85/877/048/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/36/304/062/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/07/696/054/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/95/031/063/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/52/639/093/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/84/815/107/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/09/165/103/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/151/044/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/68/160/055/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/50/282/085/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/32/037/077/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/14/920/052/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/40/304/062/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/71/067/105/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/42/857/043/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/21/789/066/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/25/629/058/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/569/049/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/73/328/070/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/27/208/080/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/02/819/063/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/70/488/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/43/708/041/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/45/613/085/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/99/209/070/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/88/172/PP0/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/57/563/071/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/99/067/074/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/31/747/059/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/60/568/087/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/99/891/042/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/42/820/071/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/22/671/085/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/96/769/052/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/85/610/041/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/29/613/061/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/26/038/060/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/70/481/106/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/71/067/105/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/09/165/103/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/70/488/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/52/639/093/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/97/486/067/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/56/264/092/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/22/671/085/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/45/613/085/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/50/282/085/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/38/867/040/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/87/994/076/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/31/286/046/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/50/330/080/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/27/208/080/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/32/037/077/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/87/994/076/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/99/067/074/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/42/820/071/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/57/563/071/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/88/172/PP0/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/73/328/070/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/31/286/046/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/37/151/044/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/42/857/043/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/99/891/042/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/43/708/041/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/85/610/041/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/38/867/040/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/99/209/070/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/97/486/067/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/21/789/066/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/02/819/063/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/95/031/063/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/40/304/062/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/36/304/062/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/29/613/061/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/33/452/061/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/26/038/060/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/31/747/059/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/25/629/058/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/68/160/055/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/14/920/052/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/96/769/052/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06145233</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04887785</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06230436</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05469607</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06303195</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=09363952</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10781584</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10316509</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04415137</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05516068</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08528250</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07703732</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05292014</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06230440</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10506771</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04385742</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06678921</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05862925</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04956937</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032873</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08020827</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06381902</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0848870</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04170843</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08561345</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07020999</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=PP017288</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07156357</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07406799</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05974731</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08756860</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04289199</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07182042</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08567122</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05276996</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04161085</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06161329</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06003826</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10648170</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10506771</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10316509</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0848870</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=09363952</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06748697</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09226456</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08567122</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08561345</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08528250</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04086738</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07699487</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04628631</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08033050</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08020827</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07703732</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07699487</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07406799</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07182042</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07156357</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=PP017288</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032873</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04628631</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04415137</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04385742</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04289199</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04170843</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04161085</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04086738</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07020999</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06748697</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06678921</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06381902</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06303195</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06230440</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06230436</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06161329</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06145233</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06003826</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05974731</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05862925</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05516068</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05292014</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05276996</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
+    <t>6145233</t>
+  </si>
+  <si>
+    <t>4887785</t>
+  </si>
+  <si>
+    <t>6230436</t>
+  </si>
+  <si>
+    <t>8191849</t>
+  </si>
+  <si>
+    <t>10757951</t>
+  </si>
+  <si>
+    <t>10638765</t>
+  </si>
+  <si>
+    <t>5381625</t>
+  </si>
+  <si>
+    <t>5469607</t>
+  </si>
+  <si>
+    <t>6303195</t>
+  </si>
+  <si>
+    <t>9363952</t>
   </si>
   <si>
     <t>10781584</t>
   </si>
   <si>
-    <t>10757951</t>
+    <t>10316509</t>
+  </si>
+  <si>
+    <t>4415137</t>
+  </si>
+  <si>
+    <t>5516068</t>
+  </si>
+  <si>
+    <t>8528250</t>
+  </si>
+  <si>
+    <t>7703732</t>
+  </si>
+  <si>
+    <t>5292014</t>
+  </si>
+  <si>
+    <t>6230440</t>
+  </si>
+  <si>
+    <t>4506475</t>
+  </si>
+  <si>
+    <t>5598662</t>
+  </si>
+  <si>
+    <t>5079869</t>
+  </si>
+  <si>
+    <t>6455117</t>
+  </si>
+  <si>
+    <t>10506771</t>
+  </si>
+  <si>
+    <t>4385742</t>
+  </si>
+  <si>
+    <t>5290001</t>
+  </si>
+  <si>
+    <t>6678921</t>
+  </si>
+  <si>
+    <t>6557806</t>
+  </si>
+  <si>
+    <t>5862925</t>
+  </si>
+  <si>
+    <t>4956937</t>
+  </si>
+  <si>
+    <t>7032873</t>
+  </si>
+  <si>
+    <t>9107518</t>
+  </si>
+  <si>
+    <t>8020827</t>
+  </si>
+  <si>
+    <t>6381902</t>
+  </si>
+  <si>
+    <t>D848870</t>
+  </si>
+  <si>
+    <t>4170843</t>
+  </si>
+  <si>
+    <t>8561345</t>
+  </si>
+  <si>
+    <t>7020999</t>
+  </si>
+  <si>
+    <t>PP17288</t>
+  </si>
+  <si>
+    <t>7156357</t>
+  </si>
+  <si>
+    <t>7406799</t>
+  </si>
+  <si>
+    <t>5974731</t>
+  </si>
+  <si>
+    <t>8756860</t>
+  </si>
+  <si>
+    <t>4045061</t>
+  </si>
+  <si>
+    <t>4979712</t>
+  </si>
+  <si>
+    <t>4121337</t>
+  </si>
+  <si>
+    <t>8764215</t>
+  </si>
+  <si>
+    <t>5873555</t>
+  </si>
+  <si>
+    <t>6003824</t>
+  </si>
+  <si>
+    <t>7770743</t>
+  </si>
+  <si>
+    <t>4289199</t>
+  </si>
+  <si>
+    <t>7182042</t>
+  </si>
+  <si>
+    <t>8567122</t>
+  </si>
+  <si>
+    <t>5276996</t>
+  </si>
+  <si>
+    <t>4161085</t>
+  </si>
+  <si>
+    <t>6161329</t>
+  </si>
+  <si>
+    <t>6003826</t>
+  </si>
+  <si>
+    <t>10154630</t>
+  </si>
+  <si>
+    <t>10309097</t>
   </si>
   <si>
     <t>10648170</t>
   </si>
   <si>
-    <t>10638765</t>
-  </si>
-  <si>
-    <t>10506771</t>
-  </si>
-  <si>
-    <t>10316509</t>
-  </si>
-  <si>
-    <t>10309097</t>
-  </si>
-  <si>
-    <t>D848870</t>
-  </si>
-  <si>
-    <t>10154630</t>
-  </si>
-  <si>
-    <t>9363952</t>
+    <t>6748697</t>
+  </si>
+  <si>
+    <t>4547992</t>
   </si>
   <si>
     <t>9226456</t>
   </si>
   <si>
-    <t>9107518</t>
-  </si>
-  <si>
-    <t>8764215</t>
-  </si>
-  <si>
-    <t>8567122</t>
-  </si>
-  <si>
-    <t>8561345</t>
-  </si>
-  <si>
-    <t>8528250</t>
+    <t>4086738</t>
+  </si>
+  <si>
+    <t>7699487</t>
+  </si>
+  <si>
+    <t>4628631</t>
   </si>
   <si>
     <t>8033050</t>
-  </si>
-  <si>
-    <t>8020827</t>
-  </si>
-  <si>
-    <t>7770743</t>
-  </si>
-  <si>
-    <t>7703732</t>
-  </si>
-  <si>
-    <t>7699487</t>
-  </si>
-  <si>
-    <t>7406799</t>
-  </si>
-  <si>
-    <t>7182042</t>
-  </si>
-  <si>
-    <t>7156357</t>
-  </si>
-  <si>
-    <t>PP17288</t>
-  </si>
-  <si>
-    <t>7032873</t>
-  </si>
-  <si>
-    <t>4628631</t>
-  </si>
-  <si>
-    <t>4547992</t>
-  </si>
-  <si>
-    <t>4415137</t>
-  </si>
-  <si>
-    <t>4385742</t>
-  </si>
-  <si>
-    <t>4289199</t>
-  </si>
-  <si>
-    <t>4170843</t>
-  </si>
-  <si>
-    <t>4161085</t>
-  </si>
-  <si>
-    <t>4121337</t>
-  </si>
-  <si>
-    <t>4086738</t>
-  </si>
-  <si>
-    <t>4045061</t>
-  </si>
-  <si>
-    <t>7020999</t>
-  </si>
-  <si>
-    <t>6748697</t>
-  </si>
-  <si>
-    <t>6678921</t>
-  </si>
-  <si>
-    <t>6557806</t>
-  </si>
-  <si>
-    <t>6455117</t>
-  </si>
-  <si>
-    <t>6381902</t>
-  </si>
-  <si>
-    <t>6303195</t>
-  </si>
-  <si>
-    <t>6230440</t>
-  </si>
-  <si>
-    <t>6230436</t>
-  </si>
-  <si>
-    <t>6161329</t>
-  </si>
-  <si>
-    <t>6145233</t>
-  </si>
-  <si>
-    <t>6003826</t>
-  </si>
-  <si>
-    <t>6003824</t>
-  </si>
-  <si>
-    <t>5974731</t>
-  </si>
-  <si>
-    <t>5873555</t>
-  </si>
-  <si>
-    <t>5862925</t>
-  </si>
-  <si>
-    <t>5598662</t>
-  </si>
-  <si>
-    <t>5516068</t>
-  </si>
-  <si>
-    <t>5381625</t>
-  </si>
-  <si>
-    <t>5292014</t>
-  </si>
-  <si>
-    <t>5290001</t>
-  </si>
-  <si>
-    <t>5276996</t>
-  </si>
-  <si>
-    <t>4979712</t>
   </si>
 </sst>
 </file>
@@ -1092,13 +1179,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,551 +1198,554 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1663,279 +1753,377 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2058,6 +2246,20 @@
     <hyperlink ref="C59" r:id="rId116"/>
     <hyperlink ref="B60" r:id="rId117"/>
     <hyperlink ref="C60" r:id="rId118"/>
+    <hyperlink ref="B61" r:id="rId119"/>
+    <hyperlink ref="C61" r:id="rId120"/>
+    <hyperlink ref="B62" r:id="rId121"/>
+    <hyperlink ref="C62" r:id="rId122"/>
+    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="C63" r:id="rId124"/>
+    <hyperlink ref="B64" r:id="rId125"/>
+    <hyperlink ref="C64" r:id="rId126"/>
+    <hyperlink ref="B65" r:id="rId127"/>
+    <hyperlink ref="C65" r:id="rId128"/>
+    <hyperlink ref="B66" r:id="rId129"/>
+    <hyperlink ref="C66" r:id="rId130"/>
+    <hyperlink ref="B67" r:id="rId131"/>
+    <hyperlink ref="C67" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/专利查询和搜集/已处理/未命中数据.xlsx
+++ b/专利查询和搜集/已处理/未命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="261">
   <si>
     <t>标题</t>
   </si>
@@ -64,18 +64,18 @@
     <t xml:space="preserve">cantilever attachment </t>
   </si>
   <si>
+    <t xml:space="preserve">fabric plant container </t>
+  </si>
+  <si>
     <t xml:space="preserve">device support bracket </t>
   </si>
   <si>
-    <t xml:space="preserve">fabric plant container </t>
+    <t xml:space="preserve">tensile support device </t>
   </si>
   <si>
     <t xml:space="preserve">deck accessory bracket </t>
   </si>
   <si>
-    <t xml:space="preserve">tensile support device </t>
-  </si>
-  <si>
     <t xml:space="preserve">rotating display device </t>
   </si>
   <si>
@@ -100,21 +100,18 @@
     <t xml:space="preserve">interlocking plant mobile </t>
   </si>
   <si>
+    <t xml:space="preserve">hanger for plant container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demountable device bracket </t>
+  </si>
+  <si>
     <t xml:space="preserve">pre-crimped tie components </t>
   </si>
   <si>
-    <t xml:space="preserve">deck mountable plant stand </t>
-  </si>
-  <si>
     <t xml:space="preserve">hanging plant track system </t>
   </si>
   <si>
-    <t xml:space="preserve">hanger for plant container </t>
-  </si>
-  <si>
-    <t xml:space="preserve">demountable device bracket </t>
-  </si>
-  <si>
     <t xml:space="preserve">apparatus for hanging plants </t>
   </si>
   <si>
@@ -148,6 +145,12 @@
     <t xml:space="preserve">plant hanger with watering system </t>
   </si>
   <si>
+    <t xml:space="preserve">rimmed container mounting assembly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">method of hanging a clay flowerpot </t>
+  </si>
+  <si>
     <t xml:space="preserve">decorative article forming support </t>
   </si>
   <si>
@@ -160,12 +163,6 @@
     <t xml:space="preserve">solar-powered hanging basket light </t>
   </si>
   <si>
-    <t xml:space="preserve">rimmed container mounting assembly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">method of hanging a clay flowerpot </t>
-  </si>
-  <si>
     <t xml:space="preserve">support structure for hanging plants </t>
   </si>
   <si>
@@ -256,18 +253,18 @@
     <t>https://pdfpiw.uspto.gov/37/151/044/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/50/282/085/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/68/160/055/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/50/282/085/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/14/920/052/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/32/037/077/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/14/920/052/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/40/304/062/1.pdf</t>
   </si>
   <si>
@@ -292,21 +289,18 @@
     <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/37/569/049/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/73/328/070/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/21/789/066/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/25/629/058/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/37/569/049/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/73/328/070/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
   </si>
   <si>
@@ -343,6 +337,12 @@
     <t>https://pdfpiw.uspto.gov/60/568/087/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
   </si>
   <si>
@@ -355,12 +355,6 @@
     <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
   </si>
   <si>
@@ -454,18 +448,18 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04415137</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08528250</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05516068</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08528250</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05292014</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07703732</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05292014</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230440</t>
   </si>
   <si>
@@ -490,21 +484,18 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04956937</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032873</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06678921</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05862925</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04956937</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032873</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
   </si>
   <si>
@@ -541,6 +532,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08756860</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
   </si>
   <si>
@@ -553,12 +550,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
   </si>
   <si>
@@ -652,18 +643,18 @@
     <t>4415137</t>
   </si>
   <si>
+    <t>8528250</t>
+  </si>
+  <si>
     <t>5516068</t>
   </si>
   <si>
-    <t>8528250</t>
+    <t>5292014</t>
   </si>
   <si>
     <t>7703732</t>
   </si>
   <si>
-    <t>5292014</t>
-  </si>
-  <si>
     <t>6230440</t>
   </si>
   <si>
@@ -688,21 +679,18 @@
     <t>5290001</t>
   </si>
   <si>
+    <t>4956937</t>
+  </si>
+  <si>
+    <t>7032873</t>
+  </si>
+  <si>
     <t>6678921</t>
   </si>
   <si>
-    <t>6557806</t>
-  </si>
-  <si>
     <t>5862925</t>
   </si>
   <si>
-    <t>4956937</t>
-  </si>
-  <si>
-    <t>7032873</t>
-  </si>
-  <si>
     <t>9107518</t>
   </si>
   <si>
@@ -739,6 +727,12 @@
     <t>8756860</t>
   </si>
   <si>
+    <t>5873555</t>
+  </si>
+  <si>
+    <t>6003824</t>
+  </si>
+  <si>
     <t>4045061</t>
   </si>
   <si>
@@ -749,12 +743,6 @@
   </si>
   <si>
     <t>8764215</t>
-  </si>
-  <si>
-    <t>5873555</t>
-  </si>
-  <si>
-    <t>6003824</t>
   </si>
   <si>
     <t>7770743</t>
@@ -1179,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,13 +1195,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1221,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1235,13 +1223,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1249,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1263,13 +1251,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1277,13 +1265,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1291,13 +1279,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1305,13 +1293,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1319,13 +1307,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1333,13 +1321,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1347,13 +1335,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1361,13 +1349,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1375,13 +1363,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1389,13 +1377,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1403,13 +1391,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1417,13 +1405,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1431,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1445,13 +1433,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1459,13 +1447,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1473,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1487,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1501,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1515,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1529,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1543,13 +1531,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1557,13 +1545,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1571,13 +1559,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1585,13 +1573,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1599,13 +1587,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1613,13 +1601,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1627,13 +1615,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1641,13 +1629,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1655,13 +1643,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1669,13 +1657,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1683,13 +1671,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1697,13 +1685,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1711,13 +1699,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1725,41 +1713,41 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1767,13 +1755,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1781,13 +1769,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1795,13 +1783,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1809,13 +1797,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1823,13 +1811,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1837,13 +1825,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1851,13 +1839,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1865,13 +1853,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1879,13 +1867,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1893,13 +1881,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1907,13 +1895,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1921,13 +1909,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1935,13 +1923,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1949,13 +1937,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1963,13 +1951,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1977,13 +1965,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1991,27 +1979,27 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2019,13 +2007,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2033,13 +2021,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2047,13 +2035,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2061,13 +2049,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2075,13 +2063,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2089,13 +2077,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2103,27 +2091,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2258,8 +2232,6 @@
     <hyperlink ref="C65" r:id="rId128"/>
     <hyperlink ref="B66" r:id="rId129"/>
     <hyperlink ref="C66" r:id="rId130"/>
-    <hyperlink ref="B67" r:id="rId131"/>
-    <hyperlink ref="C67" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/专利查询和搜集/已处理/未命中数据.xlsx
+++ b/专利查询和搜集/已处理/未命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="266">
   <si>
     <t>标题</t>
   </si>
@@ -46,12 +46,12 @@
     <t xml:space="preserve">openwork fabric </t>
   </si>
   <si>
+    <t xml:space="preserve">cloth hanger clip </t>
+  </si>
+  <si>
     <t xml:space="preserve">flowering planter </t>
   </si>
   <si>
-    <t xml:space="preserve">cloth hanger clip </t>
-  </si>
-  <si>
     <t xml:space="preserve">ornamental support </t>
   </si>
   <si>
@@ -64,21 +64,24 @@
     <t xml:space="preserve">cantilever attachment </t>
   </si>
   <si>
+    <t xml:space="preserve">tensile support device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deck accessory bracket </t>
+  </si>
+  <si>
     <t xml:space="preserve">fabric plant container </t>
   </si>
   <si>
     <t xml:space="preserve">device support bracket </t>
   </si>
   <si>
-    <t xml:space="preserve">tensile support device </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deck accessory bracket </t>
-  </si>
-  <si>
     <t xml:space="preserve">rotating display device </t>
   </si>
   <si>
+    <t xml:space="preserve">formable tubular product </t>
+  </si>
+  <si>
     <t xml:space="preserve">hanger for potted plants </t>
   </si>
   <si>
@@ -88,18 +91,15 @@
     <t xml:space="preserve">weight-responsive hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">formable tubular product </t>
+    <t xml:space="preserve">interlocking plant mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanging planter apparatus </t>
   </si>
   <si>
     <t xml:space="preserve">modular hydroponic system </t>
   </si>
   <si>
-    <t xml:space="preserve">hanging planter apparatus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">interlocking plant mobile </t>
-  </si>
-  <si>
     <t xml:space="preserve">hanger for plant container </t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t xml:space="preserve">vertical hanging fabric plant container </t>
   </si>
   <si>
+    <t xml:space="preserve">garden device and method of producing same </t>
+  </si>
+  <si>
     <t xml:space="preserve">creeping plant supporting frame assemblies </t>
   </si>
   <si>
-    <t xml:space="preserve">garden device and method of producing same </t>
-  </si>
-  <si>
     <t xml:space="preserve">automatic watering device for potted plants </t>
   </si>
   <si>
@@ -214,6 +214,9 @@
     <t xml:space="preserve">self-contained apparatuses for hanging, holding, rotating, or watering      plants using solar power for plant maintenance </t>
   </si>
   <si>
+    <t xml:space="preserve">dual plant hanger </t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/33/452/061/1.pdf</t>
   </si>
   <si>
@@ -232,12 +235,12 @@
     <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/07/696/054/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/07/696/054/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/95/031/063/1.pdf</t>
   </si>
   <si>
@@ -253,21 +256,24 @@
     <t>https://pdfpiw.uspto.gov/37/151/044/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/14/920/052/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/32/037/077/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/50/282/085/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/68/160/055/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/14/920/052/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/32/037/077/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/40/304/062/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
   </si>
   <si>
@@ -277,18 +283,15 @@
     <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/42/857/043/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/71/067/105/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/42/857/043/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/37/569/049/1.pdf</t>
   </si>
   <si>
@@ -319,18 +322,18 @@
     <t>https://pdfpiw.uspto.gov/45/613/085/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/99/067/074/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/88/172/PP0/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/99/209/070/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/88/172/PP0/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/57/563/071/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/99/067/074/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/31/747/059/1.pdf</t>
   </si>
   <si>
@@ -367,12 +370,12 @@
     <t>https://pdfpiw.uspto.gov/22/671/085/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/85/610/041/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/96/769/052/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/85/610/041/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/29/613/061/1.pdf</t>
   </si>
   <si>
@@ -409,6 +412,9 @@
     <t>https://pdfpiw.uspto.gov/50/330/080/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/41/477/D06/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06145233</t>
   </si>
   <si>
@@ -427,12 +433,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05469607</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05469607</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06303195</t>
   </si>
   <si>
@@ -448,21 +454,24 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04415137</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05292014</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07703732</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08528250</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05516068</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05292014</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07703732</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230440</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
   </si>
   <si>
@@ -472,18 +481,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04385742</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10506771</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04385742</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04956937</t>
   </si>
   <si>
@@ -514,18 +520,18 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08561345</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07406799</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=PP017288</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07020999</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=PP017288</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07156357</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07406799</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05974731</t>
   </si>
   <si>
@@ -562,12 +568,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08567122</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04161085</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05276996</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04161085</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06161329</t>
   </si>
   <si>
@@ -604,6 +610,9 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08033050</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0647741</t>
+  </si>
+  <si>
     <t>6145233</t>
   </si>
   <si>
@@ -622,12 +631,12 @@
     <t>10638765</t>
   </si>
   <si>
+    <t>5469607</t>
+  </si>
+  <si>
     <t>5381625</t>
   </si>
   <si>
-    <t>5469607</t>
-  </si>
-  <si>
     <t>6303195</t>
   </si>
   <si>
@@ -643,21 +652,24 @@
     <t>4415137</t>
   </si>
   <si>
+    <t>5292014</t>
+  </si>
+  <si>
+    <t>7703732</t>
+  </si>
+  <si>
     <t>8528250</t>
   </si>
   <si>
     <t>5516068</t>
   </si>
   <si>
-    <t>5292014</t>
-  </si>
-  <si>
-    <t>7703732</t>
-  </si>
-  <si>
     <t>6230440</t>
   </si>
   <si>
+    <t>6455117</t>
+  </si>
+  <si>
     <t>4506475</t>
   </si>
   <si>
@@ -667,18 +679,15 @@
     <t>5079869</t>
   </si>
   <si>
-    <t>6455117</t>
+    <t>5290001</t>
+  </si>
+  <si>
+    <t>4385742</t>
   </si>
   <si>
     <t>10506771</t>
   </si>
   <si>
-    <t>4385742</t>
-  </si>
-  <si>
-    <t>5290001</t>
-  </si>
-  <si>
     <t>4956937</t>
   </si>
   <si>
@@ -709,18 +718,18 @@
     <t>8561345</t>
   </si>
   <si>
+    <t>7406799</t>
+  </si>
+  <si>
+    <t>PP17288</t>
+  </si>
+  <si>
     <t>7020999</t>
   </si>
   <si>
-    <t>PP17288</t>
-  </si>
-  <si>
     <t>7156357</t>
   </si>
   <si>
-    <t>7406799</t>
-  </si>
-  <si>
     <t>5974731</t>
   </si>
   <si>
@@ -757,12 +766,12 @@
     <t>8567122</t>
   </si>
   <si>
+    <t>4161085</t>
+  </si>
+  <si>
     <t>5276996</t>
   </si>
   <si>
-    <t>4161085</t>
-  </si>
-  <si>
     <t>6161329</t>
   </si>
   <si>
@@ -797,6 +806,12 @@
   </si>
   <si>
     <t>8033050</t>
+  </si>
+  <si>
+    <t>D647741</t>
+  </si>
+  <si>
+    <t>png_get/D647741.png</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1209,13 +1224,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1223,13 +1238,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1237,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1251,13 +1266,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1265,13 +1280,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1279,13 +1294,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1293,13 +1308,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,13 +1322,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1321,13 +1336,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1335,13 +1350,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1349,13 +1364,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1363,13 +1378,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1377,13 +1392,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1391,13 +1406,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1405,13 +1420,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1419,13 +1434,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1433,13 +1448,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1447,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1461,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1475,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1489,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1503,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1517,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1531,13 +1546,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1545,13 +1560,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1559,13 +1574,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1573,13 +1588,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1587,13 +1602,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1601,13 +1616,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1615,13 +1630,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1629,13 +1644,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1643,13 +1658,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1657,13 +1672,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1671,13 +1686,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1685,13 +1700,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1699,41 +1714,41 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1741,13 +1756,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1755,13 +1770,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1769,13 +1784,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1783,13 +1798,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1797,13 +1812,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1811,13 +1826,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1825,13 +1840,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1839,13 +1854,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1853,13 +1868,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1867,13 +1882,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1881,13 +1896,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1895,13 +1910,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1909,13 +1924,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1923,13 +1938,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1937,13 +1952,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1951,13 +1966,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1965,13 +1980,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1979,13 +1994,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1993,13 +2008,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2007,13 +2022,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2021,13 +2036,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2035,13 +2050,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2049,13 +2064,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2063,41 +2078,58 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2232,6 +2264,8 @@
     <hyperlink ref="C65" r:id="rId128"/>
     <hyperlink ref="B66" r:id="rId129"/>
     <hyperlink ref="C66" r:id="rId130"/>
+    <hyperlink ref="B67" r:id="rId131"/>
+    <hyperlink ref="C67" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/专利查询和搜集/已处理/未命中数据.xlsx
+++ b/专利查询和搜集/已处理/未命中数据.xlsx
@@ -46,12 +46,15 @@
     <t xml:space="preserve">openwork fabric </t>
   </si>
   <si>
+    <t xml:space="preserve">flowering planter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">cloth hanger clip </t>
   </si>
   <si>
-    <t xml:space="preserve">flowering planter </t>
-  </si>
-  <si>
     <t xml:space="preserve">ornamental support </t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">rotating display device </t>
   </si>
   <si>
+    <t xml:space="preserve">weight-responsive hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">formable tubular product </t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t xml:space="preserve">pole garden and fountain </t>
   </si>
   <si>
-    <t xml:space="preserve">weight-responsive hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">interlocking plant mobile </t>
   </si>
   <si>
@@ -115,12 +118,12 @@
     <t xml:space="preserve">apparatus for hanging plants </t>
   </si>
   <si>
+    <t xml:space="preserve">pot holder for use with posts </t>
+  </si>
+  <si>
     <t xml:space="preserve">suspendable blow dryer holder </t>
   </si>
   <si>
-    <t xml:space="preserve">pot holder for use with posts </t>
-  </si>
-  <si>
     <t xml:space="preserve">end portion of handicraft gauge </t>
   </si>
   <si>
@@ -130,15 +133,15 @@
     <t xml:space="preserve">apparatus for displaying a plant </t>
   </si>
   <si>
+    <t xml:space="preserve">patio umbrella support apparatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">petunia plant named `dancas 110` </t>
+  </si>
+  <si>
     <t xml:space="preserve">reversible hanging plant support </t>
   </si>
   <si>
-    <t xml:space="preserve">petunia plant named `dancas 110` </t>
-  </si>
-  <si>
-    <t xml:space="preserve">patio umbrella support apparatus </t>
-  </si>
-  <si>
     <t xml:space="preserve">elevated plant watering apparatus </t>
   </si>
   <si>
@@ -166,12 +169,12 @@
     <t xml:space="preserve">support structure for hanging plants </t>
   </si>
   <si>
+    <t xml:space="preserve">support pole with pipe-hinge slide lock </t>
+  </si>
+  <si>
     <t xml:space="preserve">wellhead sidewall electrical penetrator </t>
   </si>
   <si>
-    <t xml:space="preserve">support pole with pipe-hinge slide lock </t>
-  </si>
-  <si>
     <t xml:space="preserve">vertical hanging fabric plant container </t>
   </si>
   <si>
@@ -214,9 +217,6 @@
     <t xml:space="preserve">self-contained apparatuses for hanging, holding, rotating, or watering      plants using solar power for plant maintenance </t>
   </si>
   <si>
-    <t xml:space="preserve">dual plant hanger </t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/33/452/061/1.pdf</t>
   </si>
   <si>
@@ -235,12 +235,15 @@
     <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/41/477/D06/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/07/696/054/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/95/031/063/1.pdf</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t>https://pdfpiw.uspto.gov/40/304/062/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
   </si>
   <si>
@@ -280,9 +286,6 @@
     <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
   </si>
   <si>
@@ -307,12 +310,12 @@
     <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/02/819/063/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/27/208/080/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/02/819/063/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/70/488/D08/1.pdf</t>
   </si>
   <si>
@@ -322,18 +325,18 @@
     <t>https://pdfpiw.uspto.gov/45/613/085/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/57/563/071/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/88/172/PP0/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/99/067/074/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/88/172/PP0/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/99/209/070/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/57/563/071/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/31/747/059/1.pdf</t>
   </si>
   <si>
@@ -361,12 +364,12 @@
     <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/42/820/071/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/99/891/042/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/42/820/071/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/22/671/085/1.pdf</t>
   </si>
   <si>
@@ -412,9 +415,6 @@
     <t>https://pdfpiw.uspto.gov/50/330/080/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/41/477/D06/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06145233</t>
   </si>
   <si>
@@ -433,12 +433,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0647741</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05469607</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06303195</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230440</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
   </si>
   <si>
@@ -478,9 +484,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
   </si>
   <si>
@@ -505,12 +508,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06381902</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08020827</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06381902</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0848870</t>
   </si>
   <si>
@@ -520,18 +523,18 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08561345</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07156357</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=PP017288</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07406799</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=PP017288</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07020999</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07156357</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05974731</t>
   </si>
   <si>
@@ -559,12 +562,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07182042</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04289199</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07182042</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08567122</t>
   </si>
   <si>
@@ -610,9 +613,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08033050</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0647741</t>
-  </si>
-  <si>
     <t>6145233</t>
   </si>
   <si>
@@ -631,12 +631,15 @@
     <t>10638765</t>
   </si>
   <si>
+    <t>5381625</t>
+  </si>
+  <si>
+    <t>D647741</t>
+  </si>
+  <si>
     <t>5469607</t>
   </si>
   <si>
-    <t>5381625</t>
-  </si>
-  <si>
     <t>6303195</t>
   </si>
   <si>
@@ -667,6 +670,9 @@
     <t>6230440</t>
   </si>
   <si>
+    <t>5079869</t>
+  </si>
+  <si>
     <t>6455117</t>
   </si>
   <si>
@@ -676,9 +682,6 @@
     <t>5598662</t>
   </si>
   <si>
-    <t>5079869</t>
-  </si>
-  <si>
     <t>5290001</t>
   </si>
   <si>
@@ -703,12 +706,12 @@
     <t>9107518</t>
   </si>
   <si>
+    <t>6381902</t>
+  </si>
+  <si>
     <t>8020827</t>
   </si>
   <si>
-    <t>6381902</t>
-  </si>
-  <si>
     <t>D848870</t>
   </si>
   <si>
@@ -718,18 +721,18 @@
     <t>8561345</t>
   </si>
   <si>
+    <t>7156357</t>
+  </si>
+  <si>
+    <t>PP17288</t>
+  </si>
+  <si>
     <t>7406799</t>
   </si>
   <si>
-    <t>PP17288</t>
-  </si>
-  <si>
     <t>7020999</t>
   </si>
   <si>
-    <t>7156357</t>
-  </si>
-  <si>
     <t>5974731</t>
   </si>
   <si>
@@ -757,12 +760,12 @@
     <t>7770743</t>
   </si>
   <si>
+    <t>7182042</t>
+  </si>
+  <si>
     <t>4289199</t>
   </si>
   <si>
-    <t>7182042</t>
-  </si>
-  <si>
     <t>8567122</t>
   </si>
   <si>
@@ -806,9 +809,6 @@
   </si>
   <si>
     <t>8033050</t>
-  </si>
-  <si>
-    <t>D647741</t>
   </si>
   <si>
     <t>png_get/D647741.png</t>
@@ -1316,6 +1316,9 @@
       <c r="D9" t="s">
         <v>206</v>
       </c>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -1361,7 +1364,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>78</v>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>104</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>105</v>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>124</v>
@@ -2087,7 +2090,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2127,9 +2130,6 @@
       </c>
       <c r="D67" t="s">
         <v>264</v>
-      </c>
-      <c r="E67" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
